--- a/เอกสาร/excel/แก้เวลา.xlsx
+++ b/เอกสาร/excel/แก้เวลา.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POP PC\Documents\GitHub\AI-Firewall-Training-set-Researching\เอกสาร\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\POP\Documents\GitHub\AI-Firewall-Training-set-Researching\เอกสาร\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49E1ED1-14FA-4691-9606-413A79CE8D95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB4A78D-9532-41F9-B3EB-7381BC2B6596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{9C64108A-1386-4F0E-8B91-EC3385B4A679}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{9C64108A-1386-4F0E-8B91-EC3385B4A679}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="13" r:id="rId1"/>
@@ -190,10 +190,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -396,7 +396,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -424,27 +424,27 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -456,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -468,11 +468,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -482,7 +482,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -499,7 +499,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -512,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,7 +528,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -541,22 +541,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -17515,7 +17515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E3CE693-89AF-4F21-9184-A0B44162F6FE}">
   <dimension ref="C24"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
@@ -29480,8 +29480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B361339C-AFAD-484B-932B-1056BCF8A522}">
   <dimension ref="A3:M90"/>
   <sheetViews>
-    <sheetView topLeftCell="F106" workbookViewId="0">
-      <selection activeCell="P103" sqref="P103"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31952,7 +31952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6C5DF1-0EAB-4B17-B51C-C7D12ACC357A}">
   <dimension ref="A1:AM67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -37988,15 +37988,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100045F45E641B1E04BA5F010A1067F7AD2" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="405fc7288ddd8ef64832492bd7eaf3ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6fe3bf0a-e403-4bc6-b58f-2efaf4ff2d49" xmlns:ns4="22e90dba-50b6-4650-8fae-18d4b7025a16" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98cb8966a114daa4bec7fdb112b83c0" ns3:_="" ns4:_="">
     <xsd:import namespace="6fe3bf0a-e403-4bc6-b58f-2efaf4ff2d49"/>
@@ -38181,6 +38172,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{659AD95B-279A-4DCB-892A-F9EACA612AB9}">
   <ds:schemaRefs>
@@ -38199,14 +38199,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75306146-F375-47EC-BB64-289FC9044B14}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04EBB38C-0F96-4071-9459-36FF71700C76}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38223,4 +38215,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75306146-F375-47EC-BB64-289FC9044B14}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>